--- a/assets/courses/Proект Pro.xlsx
+++ b/assets/courses/Proект Pro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27440" windowHeight="15940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27440" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Курсы" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>online</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>departments</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Профориентация</t>
   </si>
 </sst>
 </file>
@@ -250,8 +256,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,14 +305,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Просмотренная гиперссылка" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0"/>
@@ -626,11 +640,12 @@
     <col min="2" max="2" width="45.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="40" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14">
+    <row r="1" spans="1:7" ht="14">
       <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
@@ -644,13 +659,16 @@
         <v>31</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84">
+    <row r="2" spans="1:7" ht="84">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -664,13 +682,16 @@
         <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="56">
+    <row r="3" spans="1:7" ht="56">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -684,13 +705,16 @@
         <v>47</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="112">
+    <row r="4" spans="1:7" ht="112">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -704,13 +728,16 @@
         <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G4" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="154">
+    <row r="5" spans="1:7" ht="154">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -724,18 +751,23 @@
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1">
+    <row r="8" spans="1:7" ht="17.25" customHeight="1">
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
@@ -752,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
